--- a/NavConnect (1).xlsx
+++ b/NavConnect (1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Documents/www/UPPA_Navette/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D236C2C8-F53A-6B45-87E0-46738D3B6E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82E9213-200D-1940-A32E-2E6BD677AC30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5-02 au 11-02" sheetId="1" r:id="rId1"/>
@@ -22,8 +22,8 @@
     <sheet name="25-03 au 29-03" sheetId="5" r:id="rId7"/>
     <sheet name="01-04 au 05-04" sheetId="9" r:id="rId8"/>
     <sheet name="08-04 au 12-04" sheetId="10" r:id="rId9"/>
-    <sheet name="15-04 au 19-04" sheetId="11" r:id="rId10"/>
-    <sheet name="29-04 au 03-05" sheetId="12" r:id="rId11"/>
+    <sheet name="15-04 au 19-04" sheetId="12" r:id="rId10"/>
+    <sheet name="29-04 au 03-05a" sheetId="11" r:id="rId11"/>
     <sheet name="06-05 au 07-05" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191028"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="50">
   <si>
     <t>Projet et Outils informatique</t>
   </si>
@@ -155,9 +155,6 @@
 écoute des autres projets, début DCU et Diagramme de classe</t>
   </si>
   <si>
-    <t>Codage classe DAO</t>
-  </si>
-  <si>
     <t>Continuer avancement début DCU et Diagramme de classe, Codage classe DAO</t>
   </si>
   <si>
@@ -168,12 +165,6 @@
   </si>
   <si>
     <t>Changement pour du MVC</t>
-  </si>
-  <si>
-    <t>Changement BD, changement en MVC</t>
-  </si>
-  <si>
-    <t>Changement BD, Changement pour du MVC</t>
   </si>
   <si>
     <t>Creation fichier excel, Rencontre commanditaire pour MVC</t>
@@ -189,7 +180,31 @@
 Discussion des attentes avec le commanditaire</t>
   </si>
   <si>
-    <t>Maquette du site</t>
+    <t>Continuer avancement début DCU et Diagramme de classe, Maquette du site</t>
+  </si>
+  <si>
+    <t>Continuer avancement début DCU et Diagramme de classe, ,Maquette du site</t>
+  </si>
+  <si>
+    <t>continuation modif excel, amenagment sur mvc suite a l'entrevue</t>
+  </si>
+  <si>
+    <t>debut rapport, amenagment sur mvc suite a l'entrevue</t>
+  </si>
+  <si>
+    <t>modif bd, amenagment sur mvc suite a l'entrevue</t>
+  </si>
+  <si>
+    <t>modif fichier, amenagment sur mvc suite a l'entrevue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Codage classe DAO, amenagement diagramme de classe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changement BD, changement en MVC,amenagement diagramme de classe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changement BD, Changement pour du MVC, amenagement diagramme de classe </t>
   </si>
 </sst>
 </file>
@@ -956,11 +971,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F72AD03-FD0E-4D41-ADD3-F9B6D8F8930E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C69DC3C6-DBBB-9641-B531-340CE4DCA2B4}">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1117,8 +1132,8 @@
         <v>11</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="10" t="s">
-        <v>27</v>
+      <c r="C12" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1137,8 +1152,8 @@
         <v>13</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="10" t="s">
-        <v>28</v>
+      <c r="C13" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1157,8 +1172,8 @@
         <v>14</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="10" t="s">
-        <v>30</v>
+      <c r="C14" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1177,8 +1192,8 @@
         <v>12</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="10" t="s">
-        <v>29</v>
+      <c r="C15" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1253,11 +1268,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C69DC3C6-DBBB-9641-B531-340CE4DCA2B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F72AD03-FD0E-4D41-ADD3-F9B6D8F8930E}">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1414,7 +1429,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
+      <c r="C12" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
@@ -1432,7 +1449,9 @@
         <v>13</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
+      <c r="C13" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
@@ -1450,7 +1469,9 @@
         <v>14</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
+      <c r="C14" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -1468,7 +1489,9 @@
         <v>12</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
+      <c r="C15" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
@@ -2387,7 +2410,7 @@
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -2409,7 +2432,7 @@
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -2431,7 +2454,7 @@
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -2453,7 +2476,7 @@
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -3138,8 +3161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3297,7 +3320,7 @@
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -3317,7 +3340,7 @@
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -3337,7 +3360,7 @@
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -3357,7 +3380,7 @@
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -3595,7 +3618,7 @@
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -3605,7 +3628,7 @@
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
@@ -3617,7 +3640,7 @@
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -3627,7 +3650,7 @@
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
@@ -3639,7 +3662,7 @@
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -3649,7 +3672,7 @@
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
@@ -3661,7 +3684,7 @@
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -3671,7 +3694,7 @@
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
@@ -3741,8 +3764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E83F7D0-BF24-8341-9912-1A1963F64B5B}">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:H15"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3900,7 +3923,7 @@
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -3920,7 +3943,7 @@
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -3940,7 +3963,7 @@
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -3960,7 +3983,7 @@
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -4197,7 +4220,7 @@
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -4217,7 +4240,7 @@
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -4237,7 +4260,7 @@
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -4257,7 +4280,7 @@
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
